--- a/result/topics_30_keywords.xlsx
+++ b/result/topics_30_keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Crawler_NLP_Analysis\Crawler_NLP_Analysis\lda_gensim_python\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC2596-AF49-4F75-94E4-A045BE09BBC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388CF779-97B7-4525-BFA9-072EA7DF8BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="1935" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{B8D7900A-12EA-46C3-B012-5C93D94A14ED}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{B8D7900A-12EA-46C3-B012-5C93D94A14ED}"/>
   </bookViews>
   <sheets>
     <sheet name="碳中和相关" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="266">
   <si>
     <t>china carbon neutrality</t>
   </si>
@@ -824,6 +824,10 @@
   </si>
   <si>
     <t>task</t>
+  </si>
+  <si>
+    <t>Topic Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1191,38 +1195,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE295015-C26E-4B72-82C2-BA262CDA9F1D}">
-  <dimension ref="A1:BI10"/>
+  <dimension ref="A1:BJ10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="19.125" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="19" width="18.125" customWidth="1"/>
-    <col min="20" max="20" width="13.625" customWidth="1"/>
-    <col min="21" max="21" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="13.35546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.35546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.35546875" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.35546875" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
+    <col min="19" max="19" width="12.640625" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.640625" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1244,1483 +1248,1507 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>0.138431248732267</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>0.01</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>0.01</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>0.01</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>0.01</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AI4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AK4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AM4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AP4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AR4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AS4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AT4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AU4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AU4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AV4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AW4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AW4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AX4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AY4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BA4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BB4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BC4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BD4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BE4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BF4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BG4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BH4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BJ4" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>8.2629987725067702E-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>0.02</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>0.01</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AC5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AE5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AG5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AI5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AK5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AM5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AO5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AR5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AS5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AT5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AU5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AV5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AW5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AX5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AY5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BA5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BB5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BC5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BD5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BE5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BE5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BF5" s="2" t="s">
+      <c r="BF5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BG5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BH5" s="2" t="s">
+      <c r="BH5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BI5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BJ5" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>0.177734397000017</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.02</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <v>0.01</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AQ6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AS6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AS6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AT6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AU6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AV6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AW6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AW6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AX6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AY6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AY6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="AZ6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BA6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BA6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BB6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BC6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="BD6" s="2" t="s">
+      <c r="BD6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BE6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BE6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BF6" s="2" t="s">
+      <c r="BF6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BG6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BH6" s="2" t="s">
+      <c r="BH6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BI6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BJ6" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>0.148764770924534</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>0.01</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AL7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AR7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AS7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AT7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AU7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AW7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AW7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AX7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AY7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BA7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BA7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BB7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BC7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BC7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BD7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BE7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BE7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BF7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BG7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BH7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BI7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BJ7" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>9.4581895458025297E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>0.01</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>0.01</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AE8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AI8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AK8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AM8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AO8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AP8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AQ8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AR8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AS8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AT8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AU8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AV8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AW8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AX8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AY8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="AZ8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BA8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BB8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BC8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BD8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BE8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BE8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BF8" s="2" t="s">
+      <c r="BF8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BG8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BH8" s="2" t="s">
+      <c r="BH8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BI8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BJ8" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>0.14433045412596199</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>0.05</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>0.02</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>0.01</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>0.01</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>0.01</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AF9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AH9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AJ9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AL9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AM9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AO9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AP9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AQ9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AR9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AS9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AS9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AT9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AU9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AV9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AW9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AX9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AY9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="AZ9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="BA9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB9" s="2" t="s">
+      <c r="BB9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="BC9" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD9" s="2" t="s">
+      <c r="BD9" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BE9" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF9" s="2" t="s">
+      <c r="BF9" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BG9" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH9" s="2" t="s">
+      <c r="BH9" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI9" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BJ9" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>0.21352724603412501</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AA10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AB10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AC10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AE10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AG10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AI10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AJ10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AK10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AM10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AO10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AQ10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AR10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AS10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AT10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AU10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AV10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AW10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX10" s="2" t="s">
+      <c r="AX10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AY10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="AZ10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BA10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB10" s="2" t="s">
+      <c r="BB10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="BC10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD10" s="2" t="s">
+      <c r="BD10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BE10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF10" s="2" t="s">
+      <c r="BF10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="BG10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH10" s="2" t="s">
+      <c r="BH10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BJ10" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2733,38 +2761,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E86D2-741B-4F6D-AC6C-4AE2B69D28F3}">
-  <dimension ref="A1:BI10"/>
+  <dimension ref="A1:BJ10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="17.875" customWidth="1"/>
-    <col min="18" max="18" width="12.125" customWidth="1"/>
-    <col min="19" max="19" width="18.125" customWidth="1"/>
-    <col min="20" max="20" width="13.125" customWidth="1"/>
-    <col min="21" max="21" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.35546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.35546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.2109375" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="12.2109375" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2775,7 +2803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2783,1483 +2811,1507 @@
         <v>6282</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>0.14634803920880801</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>0.01</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AI4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AK4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AM4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AO4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AP4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AR4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AS4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AT4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AU4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AV4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AW4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AX4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AY4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="BA4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BB4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="BC4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BD4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BE4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BF4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG4" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="BG4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BH4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BJ4" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>0.25069363860801902</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>0.01</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>0.01</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>0.01</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AE5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AG5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AI5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AK5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AM5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AO5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AR5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AS5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AT5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AU5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AU5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AV5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AW5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AX5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AY5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AY5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="BA5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BB5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="BC5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BD5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BE5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF5" s="2" t="s">
+      <c r="BF5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BG5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH5" s="2" t="s">
+      <c r="BH5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BJ5" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>4.3471314617525299E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>0.01</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AG6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AI6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AJ6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AK6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AM6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AN6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AO6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AP6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AQ6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AS6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AT6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU6" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AU6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AV6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW6" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AW6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AX6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AY6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="AZ6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BA6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BB6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BC6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BD6" s="2" t="s">
+      <c r="BD6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BE6" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="BE6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BF6" s="2" t="s">
+      <c r="BF6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BG6" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH6" s="2" t="s">
+      <c r="BH6" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BJ6" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>0.14034245250730401</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>0.01</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>0.01</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AI7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AK7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AM7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AO7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AP7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AQ7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AR7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AS7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AS7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AT7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AU7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AX7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AY7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BA7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BB7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BC7" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BD7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BE7" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BF7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BG7" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BH7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI7" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BJ7" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>0.126812607340685</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>0.01</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AE8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AG8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AI8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AK8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AM8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AO8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AP8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AQ8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AR8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AS8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AT8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AU8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AV8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AW8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AW8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AX8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AY8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AY8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="AZ8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BA8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BB8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BC8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BD8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BE8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF8" s="2" t="s">
+      <c r="BF8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="BG8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH8" s="2" t="s">
+      <c r="BH8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BJ8" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>0.16467448074686</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>0.01</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AF9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AH9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AI9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AJ9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AK9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AL9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AM9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AO9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AP9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AQ9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AR9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AS9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AS9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AT9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AU9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AV9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AW9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AX9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AY9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AY9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="AZ9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BA9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BA9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB9" s="2" t="s">
+      <c r="BB9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BC9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BD9" s="2" t="s">
+      <c r="BD9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BE9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BE9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BF9" s="2" t="s">
+      <c r="BF9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="BG9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BH9" s="2" t="s">
+      <c r="BH9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BI9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BJ9" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>0.127657466970796</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>0.01</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Y10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AB10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AC10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AE10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AG10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AI10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AJ10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AK10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AM10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AO10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AQ10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AR10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AS10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AT10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AU10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AV10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AW10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX10" s="2" t="s">
+      <c r="AX10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AY10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="AZ10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BA10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB10" s="2" t="s">
+      <c r="BB10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="BC10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD10" s="2" t="s">
+      <c r="BD10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE10" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="BE10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF10" s="2" t="s">
+      <c r="BF10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG10" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="BG10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH10" s="2" t="s">
+      <c r="BH10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BJ10" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -4272,45 +4324,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45309470-CF83-41F4-A3C2-8AEAE863EFE0}">
-  <dimension ref="A1:BI13"/>
+  <dimension ref="A1:BJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="12.25" customWidth="1"/>
-    <col min="17" max="17" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="17.875" customWidth="1"/>
-    <col min="20" max="20" width="13.125" customWidth="1"/>
-    <col min="21" max="21" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.35546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.2109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.2109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.2109375" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.2109375" customWidth="1"/>
+    <col min="18" max="18" width="18.2109375" customWidth="1"/>
+    <col min="19" max="19" width="12.35546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4329,15 +4380,15 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2512</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4356,2044 +4407,2079 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>0.115111697515851</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AE4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AF4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AG4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AH4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AK4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AM4" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AO4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AP4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AR4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AS4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AT4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AU4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AV4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AW4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AX4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AY4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="BA4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BB4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="BC4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BD4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BE4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BF4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BG4" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BH4" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BJ4" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>0.10692595690464</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AB5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AG5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AI5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AK5" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AM5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AO5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AR5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS5" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AS5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AT5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AU5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AV5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AW5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AX5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AY5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BA5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BB5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BC5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BD5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BE5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BE5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF5" s="2" t="s">
+      <c r="BF5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BG5" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH5" s="2" t="s">
+      <c r="BH5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BJ5" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>0.107278330387948</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>0.04</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>0.01</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AK6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AM6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AN6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AP6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AQ6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AS6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AT6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AU6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AV6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AW6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AX6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY6" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AY6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="AZ6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BA6" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BB6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BC6" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD6" s="2" t="s">
+      <c r="BD6" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BE6" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF6" s="2" t="s">
+      <c r="BF6" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BG6" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH6" s="2" t="s">
+      <c r="BH6" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BJ6" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>0.14554333218017701</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>0.03</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AE7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AG7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AI7" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AK7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AM7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AO7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AP7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AQ7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AR7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AS7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AT7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AU7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AW7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AX7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AY7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BA7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BB7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BC7" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BD7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BE7" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BF7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BG7" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BH7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BJ7" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>0.107531121953321</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>0.01</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AC8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AE8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AG8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AI8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AK8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AM8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AO8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AP8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AQ8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AR8" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AS8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AT8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AU8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AV8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AW8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AW8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AX8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AY8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AY8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="AZ8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BA8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BB8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BC8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BD8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="BE8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF8" s="2" t="s">
+      <c r="BF8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BG8" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH8" s="2" t="s">
+      <c r="BH8" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BJ8" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>4.2148786758900603E-2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>0.01</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>0.01</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AF9" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AH9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AJ9" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AK9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AL9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AM9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AO9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AP9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AQ9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AR9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AS9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AS9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AT9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AU9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AV9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AW9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AX9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY9" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AY9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="AZ9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BA9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BB9" s="2" t="s">
+      <c r="BB9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BC9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BD9" s="2" t="s">
+      <c r="BD9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BE9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BE9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BF9" s="2" t="s">
+      <c r="BF9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="BG9" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="BH9" s="2" t="s">
+      <c r="BH9" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BI9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BJ9" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>4.9275519627063398E-2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0.02</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>0.01</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AD10" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AF10" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AG10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AI10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AJ10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AK10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM10" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AM10" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AO10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AQ10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AR10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AS10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AT10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AU10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AV10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AW10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX10" s="2" t="s">
+      <c r="AX10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY10" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AY10" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="AZ10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA10" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="BA10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB10" s="2" t="s">
+      <c r="BB10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC10" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="BC10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD10" s="2" t="s">
+      <c r="BD10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BE10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF10" s="2" t="s">
+      <c r="BF10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG10" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BG10" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH10" s="2" t="s">
+      <c r="BH10" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI10" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BJ10" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2">
+        <v>0.111180668036783</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>0.02</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>0.01</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AD11" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AF11" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AH11" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AJ11" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AK11" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AL11" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AM11" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AN11" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AO11" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AP11" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AQ11" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AR11" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AS11" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AS11" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AT11" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AU11" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AV11" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AW11" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX11" s="2" t="s">
+      <c r="AX11" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY11" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AY11" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
+      <c r="AZ11" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BA11" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB11" s="2" t="s">
+      <c r="BB11" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BC11" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD11" s="2" t="s">
+      <c r="BD11" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BE11" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF11" s="2" t="s">
+      <c r="BF11" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BG11" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH11" s="2" t="s">
+      <c r="BH11" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="BJ11" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2">
+        <v>0.13326247019215601</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>0.05</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>0.01</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>0.01</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AG12" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AH12" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AI12" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AK12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AK12" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AL12" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM12" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AM12" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AN12" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AO12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AO12" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AP12" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AQ12" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AR12" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS12" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AS12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AT12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AU12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AU12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AV12" s="2" t="s">
+      <c r="AV12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AW12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AW12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AX12" s="2" t="s">
+      <c r="AX12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AY12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AY12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ12" s="2" t="s">
+      <c r="AZ12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BA12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB12" s="2" t="s">
+      <c r="BB12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BC12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD12" s="2" t="s">
+      <c r="BD12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BE12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF12" s="2" t="s">
+      <c r="BF12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BG12" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH12" s="2" t="s">
+      <c r="BH12" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BI12" s="2">
+      <c r="BJ12" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="2">
+        <v>8.1742116443156307E-2</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>0.01</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Z13" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AA13" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AB13" s="2" t="s">
+      <c r="AB13" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AC13" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AD13" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AE13" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AF13" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AG13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AH13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AI13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AJ13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AL13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AM13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AN13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AO13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AP13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AQ13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AR13" s="2" t="s">
+      <c r="AR13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS13" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AS13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AT13" s="2" t="s">
+      <c r="AT13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AU13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AU13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AV13" s="2" t="s">
+      <c r="AV13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AW13" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AW13" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AX13" s="2" t="s">
+      <c r="AX13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AY13" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ13" s="2" t="s">
+      <c r="AZ13" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BA13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BA13" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BB13" s="2" t="s">
+      <c r="BB13" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BC13" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BD13" s="2" t="s">
+      <c r="BD13" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BE13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BE13" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BF13" s="2" t="s">
+      <c r="BF13" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BG13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BH13" s="2" t="s">
+      <c r="BH13" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BI13" s="2">
+      <c r="BJ13" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>